--- a/Code/Results/Cases/Case_4_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04222401535716</v>
+        <v>19.64514939341828</v>
       </c>
       <c r="C2">
-        <v>12.88823415061658</v>
+        <v>10.24460485648591</v>
       </c>
       <c r="D2">
-        <v>9.008143732522306</v>
+        <v>13.74373863765531</v>
       </c>
       <c r="E2">
-        <v>8.241110081688628</v>
+        <v>14.35017290282688</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.48460565257494</v>
+        <v>37.46021275869425</v>
       </c>
       <c r="H2">
-        <v>9.614611190427258</v>
+        <v>16.54923131936297</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.098978200882811</v>
+        <v>8.677308883221299</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.349134409089361</v>
+        <v>12.14041658435898</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.07246347818758</v>
+        <v>26.33518898919076</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46951054680802</v>
+        <v>19.08561092465424</v>
       </c>
       <c r="C3">
-        <v>12.35343041500966</v>
+        <v>10.02182573314117</v>
       </c>
       <c r="D3">
-        <v>8.856192807962444</v>
+        <v>13.75975593837957</v>
       </c>
       <c r="E3">
-        <v>8.313495518583155</v>
+        <v>14.39948570684341</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.24306171702985</v>
+        <v>37.63089685077181</v>
       </c>
       <c r="H3">
-        <v>9.709255085760429</v>
+        <v>16.62015612213224</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.139670380287315</v>
+        <v>8.692301114567117</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.088155074959449</v>
+        <v>12.11181271498297</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.13603215201204</v>
+        <v>26.45852599297091</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45164980157787</v>
+        <v>18.73492722965919</v>
       </c>
       <c r="C4">
-        <v>12.01423194511765</v>
+        <v>9.882442860901492</v>
       </c>
       <c r="D4">
-        <v>8.76782057364489</v>
+        <v>13.77226126301739</v>
       </c>
       <c r="E4">
-        <v>8.362716231057732</v>
+        <v>14.43189931566359</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.13472207273341</v>
+        <v>37.74883244059805</v>
       </c>
       <c r="H4">
-        <v>9.775587918883625</v>
+        <v>16.66689202831964</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.165416998090825</v>
+        <v>8.701990485781526</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.926487767009354</v>
+        <v>12.0956507070449</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.19424172717372</v>
+        <v>26.54083349730091</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02330474172263</v>
+        <v>18.59042664907353</v>
       </c>
       <c r="C5">
-        <v>11.87342580032408</v>
+        <v>9.825053724840114</v>
       </c>
       <c r="D5">
-        <v>8.733061629482181</v>
+        <v>13.77802865145838</v>
       </c>
       <c r="E5">
-        <v>8.38394092212099</v>
+        <v>14.44564547665045</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.10025360054748</v>
+        <v>37.80017634692021</v>
       </c>
       <c r="H5">
-        <v>9.804596252158282</v>
+        <v>16.68673842536982</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.176104608590215</v>
+        <v>8.706061084804469</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.860333571151264</v>
+        <v>12.08942084314307</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.2225494629919</v>
+        <v>26.57602429998184</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95136054669566</v>
+        <v>18.56634219099742</v>
       </c>
       <c r="C6">
-        <v>11.8498937988594</v>
+        <v>9.815490603911083</v>
       </c>
       <c r="D6">
-        <v>8.727366002991646</v>
+        <v>13.7790268616362</v>
       </c>
       <c r="E6">
-        <v>8.387534780938402</v>
+        <v>14.44796048292421</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.09510329954573</v>
+        <v>37.80889976382884</v>
       </c>
       <c r="H6">
-        <v>9.809529940454524</v>
+        <v>16.69008227805296</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.177891214208353</v>
+        <v>8.706744390356432</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.849334805166739</v>
+        <v>12.08840801055087</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.22752014909324</v>
+        <v>26.58196722586556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4459278442897</v>
+        <v>18.73298462804736</v>
       </c>
       <c r="C7">
-        <v>12.0123432268662</v>
+        <v>9.881671192064829</v>
       </c>
       <c r="D7">
-        <v>8.767346710152841</v>
+        <v>13.77233632607963</v>
       </c>
       <c r="E7">
-        <v>8.362997793734532</v>
+        <v>14.43208252493989</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.13421853771526</v>
+        <v>37.74951161004361</v>
       </c>
       <c r="H7">
-        <v>9.775971245348517</v>
+        <v>16.66715644061358</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.165560337335632</v>
+        <v>8.702044888421259</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.925596578777723</v>
+        <v>12.09556524119908</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.19460523217827</v>
+        <v>26.54130141839423</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.50925562671308</v>
+        <v>19.45381353524598</v>
       </c>
       <c r="C8">
-        <v>12.70615995276968</v>
+        <v>10.16836630656851</v>
       </c>
       <c r="D8">
-        <v>8.954738373038662</v>
+        <v>13.74870705414048</v>
       </c>
       <c r="E8">
-        <v>8.265056297053619</v>
+        <v>14.36673300789719</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.39281542855084</v>
+        <v>37.51632743968788</v>
       </c>
       <c r="H8">
-        <v>9.645482366011461</v>
+        <v>16.57302428722697</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.112853400833613</v>
+        <v>8.682377960221688</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.259493340518057</v>
+        <v>12.13026569738345</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.09025896335954</v>
+        <v>26.37634773717608</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.22425352001386</v>
+        <v>20.80285055138988</v>
       </c>
       <c r="C9">
-        <v>13.97561345729616</v>
+        <v>10.70736225256412</v>
       </c>
       <c r="D9">
-        <v>9.360529841240707</v>
+        <v>13.72356224326857</v>
       </c>
       <c r="E9">
-        <v>8.112514468695331</v>
+        <v>14.2555076830973</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.23141432412116</v>
+        <v>37.16408067327695</v>
       </c>
       <c r="H9">
-        <v>9.459123689242317</v>
+        <v>16.41374571945458</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.015337556933861</v>
+        <v>8.647634956352567</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.89958758755486</v>
+        <v>12.20924324806745</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.04843195195552</v>
+        <v>26.10525889086875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.68694324020786</v>
+        <v>21.74498446359927</v>
       </c>
       <c r="C10">
-        <v>14.8471050184483</v>
+        <v>11.085943769972</v>
       </c>
       <c r="D10">
-        <v>9.680894885244765</v>
+        <v>13.71800039334186</v>
       </c>
       <c r="E10">
-        <v>8.026935181673636</v>
+        <v>14.1840831689365</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.06596630988473</v>
+        <v>36.97037283495112</v>
       </c>
       <c r="H10">
-        <v>9.370894178558309</v>
+        <v>16.31218436075741</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.946960112516352</v>
+        <v>8.624416246347565</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.356952483683219</v>
+        <v>12.27367068023479</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.13146601352225</v>
+        <v>25.93828448079653</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.74835589866615</v>
+        <v>22.16118129321432</v>
       </c>
       <c r="C11">
-        <v>15.22944173138845</v>
+        <v>11.2537666663491</v>
       </c>
       <c r="D11">
-        <v>9.831214207878283</v>
+        <v>13.71826811017877</v>
       </c>
       <c r="E11">
-        <v>7.994325878291249</v>
+        <v>14.15382013500643</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.49563434601883</v>
+        <v>36.8965949062996</v>
       </c>
       <c r="H11">
-        <v>9.34280510789894</v>
+        <v>16.26934516553696</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.916493838441456</v>
+        <v>8.614349262098651</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.561537719981732</v>
+        <v>12.30431055565544</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.19700807845831</v>
+        <v>25.86936954283701</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.14193462014376</v>
+        <v>22.31687468345459</v>
       </c>
       <c r="C12">
-        <v>15.37214291402156</v>
+        <v>11.31663768643736</v>
       </c>
       <c r="D12">
-        <v>9.888774954295041</v>
+        <v>13.71877091192426</v>
       </c>
       <c r="E12">
-        <v>7.982937657581093</v>
+        <v>14.14268040185957</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.66568644975705</v>
+        <v>36.87073538858224</v>
       </c>
       <c r="H12">
-        <v>9.334030891365066</v>
+        <v>16.25360713062296</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.905042900289689</v>
+        <v>8.610607996778322</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.638463571014984</v>
+        <v>12.31609907598566</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.22606541965558</v>
+        <v>25.84429056438745</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.05754018487247</v>
+        <v>22.28343027056663</v>
       </c>
       <c r="C13">
-        <v>15.34150292825007</v>
+        <v>11.30312824684521</v>
       </c>
       <c r="D13">
-        <v>9.876350152661493</v>
+        <v>13.71864478797492</v>
       </c>
       <c r="E13">
-        <v>7.985346758679983</v>
+        <v>14.14506530404648</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.62873389763238</v>
+        <v>36.87621200197979</v>
       </c>
       <c r="H13">
-        <v>9.335835603597031</v>
+        <v>16.25697504765317</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.907505338893863</v>
+        <v>8.611410598102605</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.621921162444211</v>
+        <v>12.31355203223565</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.21961509241784</v>
+        <v>25.84964643489706</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.78090265598679</v>
+        <v>22.17402928840955</v>
       </c>
       <c r="C14">
-        <v>15.24122381204059</v>
+        <v>11.25895298934386</v>
       </c>
       <c r="D14">
-        <v>9.835937090602878</v>
+        <v>13.71830143684394</v>
       </c>
       <c r="E14">
-        <v>7.993369413460738</v>
+        <v>14.15289724592284</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.50947665536885</v>
+        <v>36.89442567979606</v>
       </c>
       <c r="H14">
-        <v>9.342045153384435</v>
+        <v>16.26804067813691</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.915550074907329</v>
+        <v>8.614040047304758</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.567877641130423</v>
+        <v>12.30527671214163</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.19931233037993</v>
+        <v>25.86728585778027</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.61036945788753</v>
+        <v>22.10676547060519</v>
       </c>
       <c r="C15">
-        <v>15.17952756324041</v>
+        <v>11.23180447370946</v>
       </c>
       <c r="D15">
-        <v>9.811265428374915</v>
+        <v>13.71814337082954</v>
       </c>
       <c r="E15">
-        <v>7.998410144938571</v>
+        <v>14.15773623260247</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.43738877299599</v>
+        <v>36.90585324659079</v>
       </c>
       <c r="H15">
-        <v>9.346095201566433</v>
+        <v>16.27488178401528</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.920488723247384</v>
+        <v>8.615659881785639</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.534702047921941</v>
+        <v>12.30023187486196</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.1874353610626</v>
+        <v>25.87822318163423</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.61640208474992</v>
+        <v>21.71752436236208</v>
       </c>
       <c r="C16">
-        <v>14.82182970046999</v>
+        <v>11.07488352961407</v>
       </c>
       <c r="D16">
-        <v>9.671161559214088</v>
+        <v>13.7180391251143</v>
       </c>
       <c r="E16">
-        <v>8.029197781786197</v>
+        <v>14.18610575092582</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.03890698342611</v>
+        <v>36.97548439220324</v>
       </c>
       <c r="H16">
-        <v>9.37298326956841</v>
+        <v>16.31505171841404</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.948963516694818</v>
+        <v>8.625084085166353</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.343508299430015</v>
+        <v>12.27169461126566</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.1277625523178</v>
+        <v>25.94293036825323</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.99163332481332</v>
+        <v>21.47546855694605</v>
       </c>
       <c r="C17">
-        <v>14.59873821260738</v>
+        <v>10.9774566224149</v>
       </c>
       <c r="D17">
-        <v>9.586370852155575</v>
+        <v>13.71869119680055</v>
       </c>
       <c r="E17">
-        <v>8.049739456285019</v>
+        <v>14.20408010849104</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.80738408205253</v>
+        <v>37.02188582128703</v>
       </c>
       <c r="H17">
-        <v>9.392654430325292</v>
+        <v>16.34055624886387</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.966591451589013</v>
+        <v>8.630992147412625</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.225291915789585</v>
+        <v>12.25452503397896</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.09844383174595</v>
+        <v>25.9844333994874</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.6267341654457</v>
+        <v>21.33508570017282</v>
       </c>
       <c r="C18">
-        <v>14.46909610182284</v>
+        <v>10.92100811959621</v>
       </c>
       <c r="D18">
-        <v>9.538034097870938</v>
+        <v>13.71932966468248</v>
       </c>
       <c r="E18">
-        <v>8.062146203272093</v>
+        <v>14.21462823703927</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.67892028882549</v>
+        <v>37.04992359109264</v>
       </c>
       <c r="H18">
-        <v>9.40509450784347</v>
+        <v>16.35554213551416</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.9767910912916</v>
+        <v>8.634436951104053</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.156972432835717</v>
+        <v>12.24477522435545</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.08417998874412</v>
+        <v>26.00896743334939</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.50222926212351</v>
+        <v>21.28735964915674</v>
       </c>
       <c r="C19">
-        <v>14.42497562988488</v>
+        <v>10.90182653059144</v>
       </c>
       <c r="D19">
-        <v>9.521743075413461</v>
+        <v>13.71959110415786</v>
       </c>
       <c r="E19">
-        <v>8.066447033311231</v>
+        <v>14.21823568408432</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.63622700839151</v>
+        <v>37.0596478570404</v>
       </c>
       <c r="H19">
-        <v>9.409495985798658</v>
+        <v>16.36067040811354</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.980255081849787</v>
+        <v>8.635611323869975</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.133786446769001</v>
+        <v>12.24149585893947</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.07978940006112</v>
+        <v>26.01738788584661</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.05871450132933</v>
+        <v>21.50135672433132</v>
       </c>
       <c r="C20">
-        <v>14.62262431984375</v>
+        <v>10.98787079015619</v>
       </c>
       <c r="D20">
-        <v>9.595352351635007</v>
+        <v>13.71859452615068</v>
       </c>
       <c r="E20">
-        <v>8.047491158226732</v>
+        <v>14.20214500030327</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.83154222957108</v>
+        <v>37.01680658248399</v>
       </c>
       <c r="H20">
-        <v>9.390442967678336</v>
+        <v>16.33780850037764</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.964708706039957</v>
+        <v>8.630358399268763</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.237910205516709</v>
+        <v>12.25633979764238</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.10129402597103</v>
+        <v>25.97994671992346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.86238365497074</v>
+        <v>22.2062158560511</v>
       </c>
       <c r="C21">
-        <v>15.27073506124232</v>
+        <v>11.2719471474899</v>
       </c>
       <c r="D21">
-        <v>9.847790227217102</v>
+        <v>13.71839140120993</v>
       </c>
       <c r="E21">
-        <v>7.990986481037325</v>
+        <v>14.15058812567032</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.5443049803091</v>
+        <v>36.88901934303441</v>
       </c>
       <c r="H21">
-        <v>9.340169642919228</v>
+        <v>16.26477728526622</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.913184856449277</v>
+        <v>8.613265793313193</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.583766688768799</v>
+        <v>12.30770237561558</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.20515880956125</v>
+        <v>25.86207707511137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.99253979346819</v>
+        <v>22.65569000193764</v>
       </c>
       <c r="C22">
-        <v>15.68216554792982</v>
+        <v>11.45362505462575</v>
       </c>
       <c r="D22">
-        <v>10.01648402239585</v>
+        <v>13.72059786770492</v>
       </c>
       <c r="E22">
-        <v>7.9596803653071</v>
+        <v>14.11875912997595</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.05300369043859</v>
+        <v>36.81762548128211</v>
       </c>
       <c r="H22">
-        <v>9.318233854983854</v>
+        <v>16.21987008621254</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.880009171180231</v>
+        <v>8.602507790823498</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.806604513532502</v>
+        <v>12.34235140991281</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.2978510257926</v>
+        <v>25.79097611881959</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.39376744061901</v>
+        <v>22.41686100950623</v>
       </c>
       <c r="C23">
-        <v>15.46370279128388</v>
+        <v>11.35703937725257</v>
       </c>
       <c r="D23">
-        <v>9.926115808998457</v>
+        <v>13.7192065535836</v>
       </c>
       <c r="E23">
-        <v>7.975856757135324</v>
+        <v>14.13557615518059</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.77753739767699</v>
+        <v>36.85461535371161</v>
       </c>
       <c r="H23">
-        <v>9.328897589516098</v>
+        <v>16.24357932021831</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.897672131938259</v>
+        <v>8.608211862225119</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.687977914295219</v>
+        <v>12.32376159478416</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.24603026035408</v>
+        <v>25.82837949768467</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.02840489914813</v>
+        <v>21.48965647929188</v>
       </c>
       <c r="C24">
-        <v>14.61182971698748</v>
+        <v>10.98316390080398</v>
       </c>
       <c r="D24">
-        <v>9.591290535312497</v>
+        <v>13.71863740985682</v>
       </c>
       <c r="E24">
-        <v>8.048505757895075</v>
+        <v>14.20301919476104</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.82060588479516</v>
+        <v>37.01909866821021</v>
       </c>
       <c r="H24">
-        <v>9.391439257333326</v>
+        <v>16.33904975140119</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.965559692072915</v>
+        <v>8.630644766697943</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.232206579794608</v>
+        <v>12.25551896501921</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.09999739867219</v>
+        <v>25.98197305051712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.26441831899958</v>
+        <v>20.44586077649695</v>
       </c>
       <c r="C25">
-        <v>13.6425966865912</v>
+        <v>10.5643855578076</v>
       </c>
       <c r="D25">
-        <v>9.246762465619963</v>
+        <v>13.72809572058108</v>
       </c>
       <c r="E25">
-        <v>8.149311856597356</v>
+        <v>14.28378779296351</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.96720284201486</v>
+        <v>37.24801651996806</v>
       </c>
       <c r="H25">
-        <v>9.501467081183849</v>
+        <v>16.45412188410289</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.041122118231892</v>
+        <v>8.656626999283921</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.728435588004835</v>
+        <v>12.18673356560071</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.04081618192953</v>
+        <v>26.17296059128045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.64514939341828</v>
+        <v>24.04222401535716</v>
       </c>
       <c r="C2">
-        <v>10.24460485648591</v>
+        <v>12.88823415061678</v>
       </c>
       <c r="D2">
-        <v>13.74373863765531</v>
+        <v>9.008143732522294</v>
       </c>
       <c r="E2">
-        <v>14.35017290282688</v>
+        <v>8.24111008168874</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>37.46021275869425</v>
+        <v>25.48460565257479</v>
       </c>
       <c r="H2">
-        <v>16.54923131936297</v>
+        <v>9.614611190427249</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.677308883221299</v>
+        <v>5.098978200882913</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.14041658435898</v>
+        <v>8.349134409089402</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.33518898919076</v>
+        <v>16.07246347818751</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.08561092465424</v>
+        <v>22.46951054680806</v>
       </c>
       <c r="C3">
-        <v>10.02182573314117</v>
+        <v>12.35343041500949</v>
       </c>
       <c r="D3">
-        <v>13.75975593837957</v>
+        <v>8.856192807962401</v>
       </c>
       <c r="E3">
-        <v>14.39948570684341</v>
+        <v>8.313495518583155</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37.63089685077181</v>
+        <v>25.24306171702982</v>
       </c>
       <c r="H3">
-        <v>16.62015612213224</v>
+        <v>9.709255085760359</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.692301114567117</v>
+        <v>5.139670380287315</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.11181271498297</v>
+        <v>8.088155074959486</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.45852599297091</v>
+        <v>16.13603215201201</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73492722965919</v>
+        <v>21.45164980157787</v>
       </c>
       <c r="C4">
-        <v>9.882442860901492</v>
+        <v>12.01423194511758</v>
       </c>
       <c r="D4">
-        <v>13.77226126301739</v>
+        <v>8.767820573644748</v>
       </c>
       <c r="E4">
-        <v>14.43189931566359</v>
+        <v>8.362716231057732</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.74883244059805</v>
+        <v>25.13472207273335</v>
       </c>
       <c r="H4">
-        <v>16.66689202831964</v>
+        <v>9.775587918883634</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.701990485781526</v>
+        <v>5.165416998090792</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.0956507070449</v>
+        <v>7.926487767009344</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.54083349730091</v>
+        <v>16.19424172717368</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.59042664907353</v>
+        <v>21.02330474172264</v>
       </c>
       <c r="C5">
-        <v>9.825053724840114</v>
+        <v>11.87342580032416</v>
       </c>
       <c r="D5">
-        <v>13.77802865145838</v>
+        <v>8.733061629482322</v>
       </c>
       <c r="E5">
-        <v>14.44564547665045</v>
+        <v>8.38394092212099</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.80017634692021</v>
+        <v>25.10025360054771</v>
       </c>
       <c r="H5">
-        <v>16.68673842536982</v>
+        <v>9.804596252158341</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.706061084804469</v>
+        <v>5.176104608590182</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.08942084314307</v>
+        <v>7.860333571151281</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.57602429998184</v>
+        <v>16.22254946299205</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.56634219099742</v>
+        <v>20.95136054669567</v>
       </c>
       <c r="C6">
-        <v>9.815490603911083</v>
+        <v>11.84989379885956</v>
       </c>
       <c r="D6">
-        <v>13.7790268616362</v>
+        <v>8.727366002991642</v>
       </c>
       <c r="E6">
-        <v>14.44796048292421</v>
+        <v>8.387534780938582</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.80889976382884</v>
+        <v>25.09510329954584</v>
       </c>
       <c r="H6">
-        <v>16.69008227805296</v>
+        <v>9.809529940454574</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.706744390356432</v>
+        <v>5.177891214208455</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.08840801055087</v>
+        <v>7.849334805166791</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.58196722586556</v>
+        <v>16.22752014909333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73298462804736</v>
+        <v>21.44592784428967</v>
       </c>
       <c r="C7">
-        <v>9.881671192064829</v>
+        <v>12.0123432268663</v>
       </c>
       <c r="D7">
-        <v>13.77233632607963</v>
+        <v>8.767346710152916</v>
       </c>
       <c r="E7">
-        <v>14.43208252493989</v>
+        <v>8.362997793734582</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.74951161004361</v>
+        <v>25.13421853771552</v>
       </c>
       <c r="H7">
-        <v>16.66715644061358</v>
+        <v>9.775971245348568</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.702044888421259</v>
+        <v>5.165560337335632</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.09556524119908</v>
+        <v>7.925596578777719</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.54130141839423</v>
+        <v>16.19460523217846</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.45381353524598</v>
+        <v>23.50925562671307</v>
       </c>
       <c r="C8">
-        <v>10.16836630656851</v>
+        <v>12.70615995276953</v>
       </c>
       <c r="D8">
-        <v>13.74870705414048</v>
+        <v>8.954738373038696</v>
       </c>
       <c r="E8">
-        <v>14.36673300789719</v>
+        <v>8.265056297053555</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>37.51632743968788</v>
+        <v>25.39281542855066</v>
       </c>
       <c r="H8">
-        <v>16.57302428722697</v>
+        <v>9.645482366011441</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.682377960221688</v>
+        <v>5.112853400833579</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.13026569738345</v>
+        <v>8.259493340518089</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.37634773717608</v>
+        <v>16.09025896335948</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.80285055138988</v>
+        <v>27.22425352001386</v>
       </c>
       <c r="C9">
-        <v>10.70736225256412</v>
+        <v>13.97561345729629</v>
       </c>
       <c r="D9">
-        <v>13.72356224326857</v>
+        <v>9.360529841240725</v>
       </c>
       <c r="E9">
-        <v>14.2555076830973</v>
+        <v>8.112514468695274</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>37.16408067327695</v>
+        <v>26.23141432412113</v>
       </c>
       <c r="H9">
-        <v>16.41374571945458</v>
+        <v>9.459123689242263</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.647634956352567</v>
+        <v>5.015337556933761</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.20924324806745</v>
+        <v>8.899587587554809</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.10525889086875</v>
+        <v>16.04843195195546</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.74498446359927</v>
+        <v>29.68694324020781</v>
       </c>
       <c r="C10">
-        <v>11.085943769972</v>
+        <v>14.84710501844815</v>
       </c>
       <c r="D10">
-        <v>13.71800039334186</v>
+        <v>9.680894885244744</v>
       </c>
       <c r="E10">
-        <v>14.1840831689365</v>
+        <v>8.026935181673629</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>36.97037283495112</v>
+        <v>27.06596630988488</v>
       </c>
       <c r="H10">
-        <v>16.31218436075741</v>
+        <v>9.370894178558361</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.624416246347565</v>
+        <v>4.946960112516353</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.27367068023479</v>
+        <v>9.356952483683257</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.93828448079653</v>
+        <v>16.1314660135224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.16118129321432</v>
+        <v>30.7483558986662</v>
       </c>
       <c r="C11">
-        <v>11.2537666663491</v>
+        <v>15.22944173138855</v>
       </c>
       <c r="D11">
-        <v>13.71826811017877</v>
+        <v>9.831214207878293</v>
       </c>
       <c r="E11">
-        <v>14.15382013500643</v>
+        <v>7.99432587829125</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>36.8965949062996</v>
+        <v>27.49563434601868</v>
       </c>
       <c r="H11">
-        <v>16.26934516553696</v>
+        <v>9.342805107898879</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.614349262098651</v>
+        <v>4.916493838441456</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.30431055565544</v>
+        <v>9.561537719981702</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.86936954283701</v>
+        <v>16.19700807845819</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.31687468345459</v>
+        <v>31.14193462014374</v>
       </c>
       <c r="C12">
-        <v>11.31663768643736</v>
+        <v>15.3721429140215</v>
       </c>
       <c r="D12">
-        <v>13.71877091192426</v>
+        <v>9.888774954295048</v>
       </c>
       <c r="E12">
-        <v>14.14268040185957</v>
+        <v>7.982937657581147</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>36.87073538858224</v>
+        <v>27.66568644975701</v>
       </c>
       <c r="H12">
-        <v>16.25360713062296</v>
+        <v>9.334030891365011</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.610607996778322</v>
+        <v>4.905042900289721</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.31609907598566</v>
+        <v>9.638463571015043</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.84429056438745</v>
+        <v>16.22606541965559</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.28343027056663</v>
+        <v>31.05754018487249</v>
       </c>
       <c r="C13">
-        <v>11.30312824684521</v>
+        <v>15.34150292824987</v>
       </c>
       <c r="D13">
-        <v>13.71864478797492</v>
+        <v>9.876350152661518</v>
       </c>
       <c r="E13">
-        <v>14.14506530404648</v>
+        <v>7.985346758679975</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>36.87621200197979</v>
+        <v>27.62873389763228</v>
       </c>
       <c r="H13">
-        <v>16.25697504765317</v>
+        <v>9.335835603597015</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.611410598102605</v>
+        <v>4.907505338893863</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.31355203223565</v>
+        <v>9.621921162444243</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.84964643489706</v>
+        <v>16.21961509241779</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.17402928840955</v>
+        <v>30.78090265598679</v>
       </c>
       <c r="C14">
-        <v>11.25895298934386</v>
+        <v>15.24122381204069</v>
       </c>
       <c r="D14">
-        <v>13.71830143684394</v>
+        <v>9.83593709060294</v>
       </c>
       <c r="E14">
-        <v>14.15289724592284</v>
+        <v>7.99336941346075</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36.89442567979606</v>
+        <v>27.50947665536875</v>
       </c>
       <c r="H14">
-        <v>16.26804067813691</v>
+        <v>9.342045153384428</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.614040047304758</v>
+        <v>4.915550074907262</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.30527671214163</v>
+        <v>9.567877641130391</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.86728585778027</v>
+        <v>16.19931233037983</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.10676547060519</v>
+        <v>30.61036945788753</v>
       </c>
       <c r="C15">
-        <v>11.23180447370946</v>
+        <v>15.17952756324045</v>
       </c>
       <c r="D15">
-        <v>13.71814337082954</v>
+        <v>9.811265428374885</v>
       </c>
       <c r="E15">
-        <v>14.15773623260247</v>
+        <v>7.998410144938513</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36.90585324659079</v>
+        <v>27.43738877299596</v>
       </c>
       <c r="H15">
-        <v>16.27488178401528</v>
+        <v>9.346095201566428</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.615659881785639</v>
+        <v>4.92048872324735</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.30023187486196</v>
+        <v>9.534702047921932</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.87822318163423</v>
+        <v>16.18743536106258</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.71752436236208</v>
+        <v>29.61640208474993</v>
       </c>
       <c r="C16">
-        <v>11.07488352961407</v>
+        <v>14.8218297004701</v>
       </c>
       <c r="D16">
-        <v>13.7180391251143</v>
+        <v>9.671161559214017</v>
       </c>
       <c r="E16">
-        <v>14.18610575092582</v>
+        <v>8.029197781786122</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.97548439220324</v>
+        <v>27.03890698342594</v>
       </c>
       <c r="H16">
-        <v>16.31505171841404</v>
+        <v>9.372983269568378</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.625084085166353</v>
+        <v>4.948963516694853</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.27169461126566</v>
+        <v>9.343508299429944</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.94293036825323</v>
+        <v>16.12776255231767</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47546855694605</v>
+        <v>28.99163332481331</v>
       </c>
       <c r="C17">
-        <v>10.9774566224149</v>
+        <v>14.59873821260738</v>
       </c>
       <c r="D17">
-        <v>13.71869119680055</v>
+        <v>9.586370852155616</v>
       </c>
       <c r="E17">
-        <v>14.20408010849104</v>
+        <v>8.04973945628501</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.02188582128703</v>
+        <v>26.80738408205257</v>
       </c>
       <c r="H17">
-        <v>16.34055624886387</v>
+        <v>9.392654430325384</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.630992147412625</v>
+        <v>4.966591451589016</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.25452503397896</v>
+        <v>9.225291915789558</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.9844333994874</v>
+        <v>16.09844383174602</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.33508570017282</v>
+        <v>28.6267341654457</v>
       </c>
       <c r="C18">
-        <v>10.92100811959621</v>
+        <v>14.4690961018228</v>
       </c>
       <c r="D18">
-        <v>13.71932966468248</v>
+        <v>9.538034097870893</v>
       </c>
       <c r="E18">
-        <v>14.21462823703927</v>
+        <v>8.062146203271979</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.04992359109264</v>
+        <v>26.67892028882555</v>
       </c>
       <c r="H18">
-        <v>16.35554213551416</v>
+        <v>9.405094507843556</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.634436951104053</v>
+        <v>4.976791091291564</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.24477522435545</v>
+        <v>9.156972432835733</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.00896743334939</v>
+        <v>16.08417998874415</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.28735964915674</v>
+        <v>28.50222926212346</v>
       </c>
       <c r="C19">
-        <v>10.90182653059144</v>
+        <v>14.42497562988493</v>
       </c>
       <c r="D19">
-        <v>13.71959110415786</v>
+        <v>9.521743075413557</v>
       </c>
       <c r="E19">
-        <v>14.21823568408432</v>
+        <v>8.066447033311293</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.0596478570404</v>
+        <v>26.63622700839174</v>
       </c>
       <c r="H19">
-        <v>16.36067040811354</v>
+        <v>9.409495985798715</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.635611323869975</v>
+        <v>4.980255081849823</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.24149585893947</v>
+        <v>9.133786446769001</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.01738788584661</v>
+        <v>16.07978940006125</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.50135672433132</v>
+        <v>29.05871450132935</v>
       </c>
       <c r="C20">
-        <v>10.98787079015619</v>
+        <v>14.62262431984375</v>
       </c>
       <c r="D20">
-        <v>13.71859452615068</v>
+        <v>9.595352351635068</v>
       </c>
       <c r="E20">
-        <v>14.20214500030327</v>
+        <v>8.047491158226634</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37.01680658248399</v>
+        <v>26.83154222957091</v>
       </c>
       <c r="H20">
-        <v>16.33780850037764</v>
+        <v>9.390442967678245</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.630358399268763</v>
+        <v>4.964708706039889</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.25633979764238</v>
+        <v>9.237910205516691</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.97994671992346</v>
+        <v>16.10129402597089</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.2062158560511</v>
+        <v>30.86238365497076</v>
       </c>
       <c r="C21">
-        <v>11.2719471474899</v>
+        <v>15.27073506124222</v>
       </c>
       <c r="D21">
-        <v>13.71839140120993</v>
+        <v>9.847790227217143</v>
       </c>
       <c r="E21">
-        <v>14.15058812567032</v>
+        <v>7.99098648103728</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36.88901934303441</v>
+        <v>27.54430498030919</v>
       </c>
       <c r="H21">
-        <v>16.26477728526622</v>
+        <v>9.340169642919282</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.613265793313193</v>
+        <v>4.913184856449175</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.30770237561558</v>
+        <v>9.583766688768804</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.86207707511137</v>
+        <v>16.20515880956129</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.65569000193764</v>
+        <v>31.99253979346814</v>
       </c>
       <c r="C22">
-        <v>11.45362505462575</v>
+        <v>15.68216554792987</v>
       </c>
       <c r="D22">
-        <v>13.72059786770492</v>
+        <v>10.01648402239581</v>
       </c>
       <c r="E22">
-        <v>14.11875912997595</v>
+        <v>7.95968036530715</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36.81762548128211</v>
+        <v>28.05300369043871</v>
       </c>
       <c r="H22">
-        <v>16.21987008621254</v>
+        <v>9.318233854983946</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.602507790823498</v>
+        <v>4.880009171180299</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.34235140991281</v>
+        <v>9.806604513532523</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.79097611881959</v>
+        <v>16.29785102579271</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.41686100950623</v>
+        <v>31.393767440619</v>
       </c>
       <c r="C23">
-        <v>11.35703937725257</v>
+        <v>15.46370279128396</v>
       </c>
       <c r="D23">
-        <v>13.7192065535836</v>
+        <v>9.926115808998532</v>
       </c>
       <c r="E23">
-        <v>14.13557615518059</v>
+        <v>7.975856757135421</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>36.85461535371161</v>
+        <v>27.77753739767702</v>
       </c>
       <c r="H23">
-        <v>16.24357932021831</v>
+        <v>9.328897589516085</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.608211862225119</v>
+        <v>4.897672131938227</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.32376159478416</v>
+        <v>9.687977914295235</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.82837949768467</v>
+        <v>16.24603026035411</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.48965647929188</v>
+        <v>29.02840489914812</v>
       </c>
       <c r="C24">
-        <v>10.98316390080398</v>
+        <v>14.61182971698752</v>
       </c>
       <c r="D24">
-        <v>13.71863740985682</v>
+        <v>9.59129053531246</v>
       </c>
       <c r="E24">
-        <v>14.20301919476104</v>
+        <v>8.048505757895015</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37.01909866821021</v>
+        <v>26.82060588479511</v>
       </c>
       <c r="H24">
-        <v>16.33904975140119</v>
+        <v>9.391439257333241</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.630644766697943</v>
+        <v>4.965559692072881</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.25551896501921</v>
+        <v>9.23220657979458</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.98197305051712</v>
+        <v>16.09999739867214</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.44586077649695</v>
+        <v>26.26441831899958</v>
       </c>
       <c r="C25">
-        <v>10.5643855578076</v>
+        <v>13.64259668659139</v>
       </c>
       <c r="D25">
-        <v>13.72809572058108</v>
+        <v>9.246762465619934</v>
       </c>
       <c r="E25">
-        <v>14.28378779296351</v>
+        <v>8.149311856597409</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.24801651996806</v>
+        <v>25.9672028420148</v>
       </c>
       <c r="H25">
-        <v>16.45412188410289</v>
+        <v>9.501467081183842</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.656626999283921</v>
+        <v>5.041122118231927</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.18673356560071</v>
+        <v>8.728435588004793</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.17296059128045</v>
+        <v>16.04081618192951</v>
       </c>
     </row>
   </sheetData>
